--- a/data/PAT/PAT-JUILLET-2024.xlsx
+++ b/data/PAT/PAT-JUILLET-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/SOLUTIONDEV/projet_data/streamlit_test/data/PAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57D8EF-39E0-1444-81DF-C141225B0F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19644C1F-E639-BF4F-B775-5A06F3706868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="920" windowWidth="27640" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
